--- a/EAEmployeeTest/Data/Login.xlsx
+++ b/EAEmployeeTest/Data/Login.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -41,10 +41,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -65,15 +66,9 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -120,16 +115,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,15 +145,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.42"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -170,27 +165,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="3"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sh4dow18711@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>